--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ054.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ054.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DA350-4D3B-4B69-A0CA-32D0A7395059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F4928-B9F5-4E6B-8573-53B82EA29866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10656" yWindow="6336" windowWidth="12024" windowHeight="8832" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>JcicZ054</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -297,14 +293,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>A：於協商前已聲請強制執行並獲分配之款項，於日後領取分配款者
-B：債務人於最高限額抵押權內清償無擔保債務
-C：保證人代為清償債務
-D：廠商將分期付款產品之款項退回貸款金融機構，並沖抵貸款金融機構債務;
-E：車貸及次順位不動產抵押權經債權金融機構處分後收回款項並沖抵貸款金融機構債務</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>指單獨受償金融機構實際之受清償日期</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -382,6 +370,19 @@
   <si>
     <t xml:space="preserve">SubmitKey= , AND CustId= , AND RcDate= </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:於協商前已聲請強制執行並獲分配之款項，於日後領取分配款者
+B:債務人於最高限額抵押權內清償無擔保債務
+C:保證人代為清償債務
+D:廠商將分期付款產品之款項退回貸款金融機構，並沖抵貸款金融機構債務;
+E:車貸及次順位不動產抵押權經債權金融機構處分後收回款項並沖抵貸款金融機構債務</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -958,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -978,10 +979,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1006,10 +1007,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1068,11 +1069,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
@@ -1081,11 +1082,11 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
@@ -1115,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="32.4">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1147,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="14">
         <v>10</v>
@@ -1166,14 +1167,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="14">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1187,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="14">
         <v>8</v>
@@ -1206,14 +1207,14 @@
         <v>41</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="14">
         <v>3</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="194.4">
@@ -1221,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>21</v>
@@ -1234,7 +1235,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1242,10 +1243,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>26</v>
@@ -1255,7 +1256,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1282,10 +1283,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>21</v>
@@ -1835,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -1861,76 +1862,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
